--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_13-28.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_13-28.xlsx
@@ -65,6 +65,9 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -101,7 +104,13 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
     <t>MEDEXAFLAM 15MG 20 TABS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELASONOZ   SYRUP</t>
   </si>
   <si>
     <t xml:space="preserve">METFORMIN  XR 1000  30TAB</t>
@@ -906,7 +915,7 @@
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -914,7 +923,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -922,17 +931,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -940,7 +949,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -948,7 +957,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -958,7 +967,7 @@
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -966,7 +975,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -974,13 +983,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -992,7 +1001,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1000,13 +1009,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1026,17 +1035,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1044,7 +1053,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1052,17 +1061,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1078,17 +1087,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1096,7 +1105,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1104,17 +1113,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1122,7 +1131,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1130,17 +1139,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1148,7 +1157,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1156,13 +1165,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1174,7 +1183,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1182,17 +1191,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1200,7 +1209,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1208,17 +1217,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1226,7 +1235,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1234,17 +1243,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1252,7 +1261,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1260,7 +1269,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1270,7 +1279,7 @@
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1278,7 +1287,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1292,11 +1301,11 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>531</v>
+        <v>144</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1304,7 +1313,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1312,13 +1321,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>-96</v>
+        <v>84</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1338,17 +1347,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1356,7 +1365,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1364,13 +1373,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>96</v>
+        <v>531</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1382,7 +1391,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1390,17 +1399,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>2</v>
+        <v>-96</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1408,7 +1417,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1416,17 +1425,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>-4</v>
+        <v>34</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1434,7 +1443,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1442,13 +1451,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1460,7 +1469,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1468,13 +1477,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1486,7 +1495,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1500,45 +1509,123 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
-      <c r="K33" s="10">
-        <v>1534</v>
-      </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" ht="17.25" customHeight="1">
-      <c t="s" r="A34" s="11">
+      <c r="A33" s="6">
+        <v>30</v>
+      </c>
+      <c t="s" r="B33" s="7">
+        <v>54</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c t="s" r="H33" s="8">
+        <v>17</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9">
+        <v>40</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c t="s" r="N33" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="24.75" customHeight="1">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c t="s" r="B34" s="7">
         <v>55</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c t="s" r="F34" s="12">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c t="s" r="H34" s="8">
         <v>56</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c t="s" r="I34" s="14">
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9">
+        <v>80</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c t="s" r="N34" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" ht="25.5" customHeight="1">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c t="s" r="B35" s="7">
         <v>57</v>
       </c>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c t="s" r="H35" s="8">
+        <v>9</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9">
+        <v>20</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c t="s" r="N35" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="K36" s="10">
+        <v>1755</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="11">
+        <v>58</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c t="s" r="F37" s="12">
+        <v>59</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c t="s" r="I37" s="14">
+        <v>60</v>
+      </c>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="107">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1633,10 +1720,19 @@
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:N37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
